--- a/public/download/ConsumeExample.xlsx
+++ b/public/download/ConsumeExample.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">客戶別</t>
   </si>
@@ -35,6 +35,18 @@
   </si>
   <si>
     <t xml:space="preserve">單耗</t>
+  </si>
+  <si>
+    <t xml:space="preserve">當月MPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">當月生產天數</t>
+  </si>
+  <si>
+    <t xml:space="preserve">下月MPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">下月生產天數</t>
   </si>
   <si>
     <t xml:space="preserve">Fendi</t>
@@ -149,10 +161,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J16" activeCellId="0" sqref="J16"/>
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -177,22 +189,46 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>10</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/public/download/ConsumeExample.xlsx
+++ b/public/download/ConsumeExample.xlsx
@@ -14,21 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>90料號</t>
   </si>
   <si>
     <t>料號</t>
-  </si>
-  <si>
-    <t>客戶別</t>
-  </si>
-  <si>
-    <t>製程</t>
-  </si>
-  <si>
-    <t>機種</t>
   </si>
   <si>
     <t>單耗</t>
@@ -38,15 +29,6 @@
   </si>
   <si>
     <t>4017-01HL001</t>
-  </si>
-  <si>
-    <t>Fendi</t>
-  </si>
-  <si>
-    <t>PD</t>
-  </si>
-  <si>
-    <t>Atlas</t>
   </si>
 </sst>
 </file>
@@ -111,10 +93,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -421,7 +403,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
@@ -429,10 +411,7 @@
   <cols>
     <col min="1" max="1" style="5" width="15.005" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="6" width="35.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="15.005" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21.75">
@@ -442,36 +421,18 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21.75">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4">
         <v>10</v>
       </c>
     </row>
